--- a/flight_results.xlsx
+++ b/flight_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D149"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Outbound Departure Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Arrival Date</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Inbound Departure Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Origin</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Destination</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Total Price</t>
         </is>
       </c>
     </row>
@@ -463,18 +478,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Verona</t>
-        </is>
+          <t>06:05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>27.88</v>
       </c>
     </row>
     <row r="3">
@@ -485,18 +513,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stockholm</t>
-        </is>
+          <t>21:25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Copenhagen</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>36.85</v>
       </c>
     </row>
     <row r="4">
@@ -507,18 +548,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>18:20</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
-        </is>
+          <t>07:10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Edinburgh</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>42.76</v>
       </c>
     </row>
     <row r="5">
@@ -529,18 +583,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Zagreb</t>
-        </is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cluj</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>47.83</v>
       </c>
     </row>
     <row r="6">
@@ -551,18 +618,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
-        </is>
+          <t>08:20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>48.48</v>
       </c>
     </row>
     <row r="7">
@@ -573,18 +653,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cluj</t>
-        </is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Billund</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>51.40000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -595,18 +688,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Billund</t>
-        </is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Genova</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>51.62</v>
       </c>
     </row>
     <row r="9">
@@ -617,18 +723,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Genova</t>
-        </is>
+          <t>00:25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tallinn</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>53.77</v>
       </c>
     </row>
     <row r="10">
@@ -639,18 +758,31 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tallinn</t>
-        </is>
+          <t>06:25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>65.67999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -661,18 +793,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gdansk</t>
-        </is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Zagreb</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>66.47</v>
       </c>
     </row>
     <row r="12">
@@ -683,18 +828,31 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tirana</t>
-        </is>
+          <t>05:50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Gdansk</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>66.62</v>
       </c>
     </row>
     <row r="13">
@@ -705,18 +863,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bologna</t>
-        </is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>67.63</v>
       </c>
     </row>
     <row r="14">
@@ -727,18 +898,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Stockholm</t>
-        </is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Edinburgh</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>67.92</v>
       </c>
     </row>
     <row r="15">
@@ -749,18 +933,31 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bologna</t>
-        </is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Venice</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>70.38</v>
       </c>
     </row>
     <row r="16">
@@ -771,18 +968,31 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
-        </is>
+          <t>13:35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Venice</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>74.12</v>
       </c>
     </row>
     <row r="17">
@@ -793,18 +1003,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Venice</t>
-        </is>
+          <t>05:55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>74.25</v>
       </c>
     </row>
     <row r="18">
@@ -815,18 +1038,31 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nantes</t>
-        </is>
+          <t>05:45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Palma</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>79.09</v>
       </c>
     </row>
     <row r="19">
@@ -837,18 +1073,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bari</t>
-        </is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Venice</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>79.39</v>
       </c>
     </row>
     <row r="20">
@@ -859,18 +1108,31 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Milan (Bergamo) BGY</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Milan</t>
-        </is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tirana</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>80.38</v>
       </c>
     </row>
     <row r="21">
@@ -881,18 +1143,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Zagreb</t>
-        </is>
+          <t>05:45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Poznan</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>80.49000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -903,18 +1178,31 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
-        </is>
+          <t>06:30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>80.68000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -925,18 +1213,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rome</t>
-        </is>
+          <t>06:05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>80.69999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -947,18 +1248,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bologna</t>
-        </is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Copenhagen</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>82.84</v>
       </c>
     </row>
     <row r="25">
@@ -969,18 +1283,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cluj</t>
-        </is>
+          <t>05:55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>84.64</v>
       </c>
     </row>
     <row r="26">
@@ -991,18 +1318,31 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bologna</t>
-        </is>
+          <t>18:10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cork</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>86.75</v>
       </c>
     </row>
     <row r="27">
@@ -1013,18 +1353,31 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Budapest</t>
-        </is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Palma</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>86.97999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1035,18 +1388,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cagliari</t>
-        </is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>87.52</v>
       </c>
     </row>
     <row r="29">
@@ -1057,18 +1423,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Marseille</t>
-        </is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>87.56999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1079,18 +1458,31 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Milan</t>
-        </is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>88.22999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -1101,18 +1493,31 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rome (Fiumicino) FCO</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rome</t>
-        </is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Cluj</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>90.22</v>
       </c>
     </row>
     <row r="32">
@@ -1123,18 +1528,31 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Marseille</t>
-        </is>
+          <t>06:40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Rome</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>90.97</v>
       </c>
     </row>
     <row r="33">
@@ -1145,18 +1563,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Krakow</t>
-        </is>
+          <t>06:05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Budapest</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>92.21000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1167,18 +1598,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>07:10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>Edinburgh</t>
         </is>
+      </c>
+      <c r="G34" t="n">
+        <v>92.28</v>
       </c>
     </row>
     <row r="35">
@@ -1189,18 +1633,31 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Poznan</t>
-        </is>
+          <t>05:55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>92.56</v>
       </c>
     </row>
     <row r="36">
@@ -1211,18 +1668,31 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Belfast</t>
-        </is>
+          <t>06:55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tirana</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>93.18000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1233,18 +1703,31 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Milan</t>
-        </is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Glasgow</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>94.02</v>
       </c>
     </row>
     <row r="38">
@@ -1255,18 +1738,31 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Barcelona</t>
-        </is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Billund</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>94.64</v>
       </c>
     </row>
     <row r="39">
@@ -1277,18 +1773,31 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Palma</t>
-        </is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Billund</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>95.11</v>
       </c>
     </row>
     <row r="40">
@@ -1299,18 +1808,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Milan</t>
-        </is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Budapest</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -1321,18 +1843,31 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wroclaw</t>
-        </is>
+          <t>06:05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Budapest</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>95.63</v>
       </c>
     </row>
     <row r="42">
@@ -1343,18 +1878,31 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Budapest</t>
-        </is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Tirana</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>95.86000000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1365,18 +1913,31 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Glasgow</t>
-        </is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Brindisi</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>96.24000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1387,18 +1948,31 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cork</t>
-        </is>
+          <t>13:25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Dubrovnik</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>96.84</v>
       </c>
     </row>
     <row r="45">
@@ -1409,18 +1983,31 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Rome</t>
-        </is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Wroclaw</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>97.11999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1431,18 +2018,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Milan</t>
-        </is>
+          <t>05:45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Rome</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>98.42</v>
       </c>
     </row>
     <row r="47">
@@ -1453,18 +2053,31 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Alicante</t>
-        </is>
+          <t>05:50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>98.97999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1475,18 +2088,31 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Madrid</t>
-        </is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Budapest</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>99.02000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1497,18 +2123,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>14:55</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tirana</t>
-        </is>
+          <t>06:05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Rome</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>99.50999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1519,18 +2158,31 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Budapest</t>
-        </is>
+          <t>13:25</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>100.39</v>
       </c>
     </row>
     <row r="51">
@@ -1541,18 +2193,31 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tirana</t>
-        </is>
+          <t>13:10</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>100.98</v>
       </c>
     </row>
     <row r="52">
@@ -1563,18 +2228,31 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Brussels</t>
-        </is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>101.41</v>
       </c>
     </row>
     <row r="53">
@@ -1585,18 +2263,31 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Stockholm</t>
-        </is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Menorca</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>101.47</v>
       </c>
     </row>
     <row r="54">
@@ -1607,18 +2298,31 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Bratislava</t>
-        </is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>101.47</v>
       </c>
     </row>
     <row r="55">
@@ -1629,18 +2333,31 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Poznan</t>
-        </is>
+          <t>06:25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Geneva</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>102.43</v>
       </c>
     </row>
     <row r="56">
@@ -1651,18 +2368,31 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Venice</t>
-        </is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>103.03</v>
       </c>
     </row>
     <row r="57">
@@ -1673,18 +2403,31 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Brussels</t>
-        </is>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>103.85</v>
       </c>
     </row>
     <row r="58">
@@ -1695,18 +2438,31 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>06:05</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
-        </is>
+          <t>21:05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Pula</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>104.2</v>
       </c>
     </row>
     <row r="59">
@@ -1717,18 +2473,31 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Catania</t>
-        </is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Tirana</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>104.57</v>
       </c>
     </row>
     <row r="60">
@@ -1739,18 +2508,31 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
-        </is>
+          <t>17:50</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>105.15</v>
       </c>
     </row>
     <row r="61">
@@ -1761,18 +2543,31 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Budapest</t>
-        </is>
+          <t>05:45</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Alicante</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>105.97</v>
       </c>
     </row>
     <row r="62">
@@ -1783,18 +2578,31 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Brindisi</t>
-        </is>
+          <t>06:55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Tirana</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>106.16</v>
       </c>
     </row>
     <row r="63">
@@ -1805,18 +2613,31 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Kaunas</t>
-        </is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Wroclaw</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>106.36</v>
       </c>
     </row>
     <row r="64">
@@ -1827,18 +2648,31 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Dublin</t>
-        </is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>106.92</v>
       </c>
     </row>
     <row r="65">
@@ -1849,18 +2683,31 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>15:50</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Dubrovnik</t>
-        </is>
+          <t>05:50</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Zagreb</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>106.93</v>
       </c>
     </row>
     <row r="66">
@@ -1871,18 +2718,31 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Palma</t>
-        </is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>107.8</v>
       </c>
     </row>
     <row r="67">
@@ -1893,18 +2753,31 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Menorca</t>
-        </is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>108.79</v>
       </c>
     </row>
     <row r="68">
@@ -1915,18 +2788,31 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Pescara</t>
-        </is>
+          <t>18:45</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Venice</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>109.19</v>
       </c>
     </row>
     <row r="69">
@@ -1937,18 +2823,31 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Venice</t>
-        </is>
+          <t>08:05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>109.88</v>
       </c>
     </row>
     <row r="70">
@@ -1959,18 +2858,31 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Catania</t>
-        </is>
+          <t>10:55</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>110.19</v>
       </c>
     </row>
     <row r="71">
@@ -1981,18 +2893,31 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Wroclaw</t>
-        </is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Edinburgh</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>110.64</v>
       </c>
     </row>
     <row r="72">
@@ -2003,18 +2928,31 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Barcelona</t>
-        </is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>110.91</v>
       </c>
     </row>
     <row r="73">
@@ -2025,18 +2963,31 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Pula</t>
-        </is>
+          <t>16:55</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>111.37</v>
       </c>
     </row>
     <row r="74">
@@ -2047,18 +2998,31 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Marseille</t>
-        </is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Edinburgh</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>111.39</v>
       </c>
     </row>
     <row r="75">
@@ -2069,18 +3033,31 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Venice (Treviso) TSF</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Venice</t>
-        </is>
+          <t>06:30</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>111.39</v>
       </c>
     </row>
     <row r="76">
@@ -2091,18 +3068,31 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Milan (Bergamo) BGY</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Milan</t>
-        </is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>111.46</v>
       </c>
     </row>
     <row r="77">
@@ -2113,18 +3103,31 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Marseille</t>
-        </is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Thessaloni</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>112.86</v>
       </c>
     </row>
     <row r="78">
@@ -2135,18 +3138,31 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cagliari</t>
-        </is>
+          <t>06:50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>112.92</v>
       </c>
     </row>
     <row r="79">
@@ -2157,18 +3173,31 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Birmingham</t>
-        </is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>113.09</v>
       </c>
     </row>
     <row r="80">
@@ -2179,18 +3208,31 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Paris</t>
-        </is>
+          <t>05:45</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>113.35</v>
       </c>
     </row>
     <row r="81">
@@ -2201,18 +3243,31 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sevilla</t>
-        </is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>114.8</v>
       </c>
     </row>
     <row r="82">
@@ -2223,18 +3278,31 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>06:20</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Bratislava</t>
-        </is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>115.1</v>
       </c>
     </row>
     <row r="83">
@@ -2245,18 +3313,31 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>London</t>
-        </is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Venice</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>115.37</v>
       </c>
     </row>
     <row r="84">
@@ -2267,18 +3348,31 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
-        </is>
+          <t>13:35</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Venice</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>115.43</v>
       </c>
     </row>
     <row r="85">
@@ -2289,18 +3383,31 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tirana</t>
-        </is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>115.74</v>
       </c>
     </row>
     <row r="86">
@@ -2311,18 +3418,31 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Rome</t>
-        </is>
+          <t>07:05</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Vienna</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>116.31</v>
       </c>
     </row>
     <row r="87">
@@ -2333,18 +3453,31 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Pisa</t>
-        </is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>116.61</v>
       </c>
     </row>
     <row r="88">
@@ -2355,18 +3488,31 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>06:20</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Billund</t>
-        </is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>116.96</v>
       </c>
     </row>
     <row r="89">
@@ -2377,18 +3523,31 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Manchester</t>
-        </is>
+          <t>06:05</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>117.38</v>
       </c>
     </row>
     <row r="90">
@@ -2399,18 +3558,31 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Valencia</t>
-        </is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>117.42</v>
       </c>
     </row>
     <row r="91">
@@ -2421,18 +3593,31 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Zagreb</t>
-        </is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Edinburgh</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>117.44</v>
       </c>
     </row>
     <row r="92">
@@ -2443,18 +3628,31 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Dublin</t>
-        </is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>117.89</v>
       </c>
     </row>
     <row r="93">
@@ -2465,18 +3663,31 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Marseille</t>
-        </is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Venice</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>118.2</v>
       </c>
     </row>
     <row r="94">
@@ -2487,18 +3698,31 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Ibiza</t>
-        </is>
+          <t>07:55</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Menorca</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>118.63</v>
       </c>
     </row>
     <row r="95">
@@ -2509,18 +3733,31 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Toulouse</t>
-        </is>
+          <t>07:50</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Tirana</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>120.05</v>
       </c>
     </row>
     <row r="96">
@@ -2531,18 +3768,31 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Bucharest</t>
-        </is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Krakow</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>120.57</v>
       </c>
     </row>
     <row r="97">
@@ -2553,18 +3803,31 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Prague</t>
-        </is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>121.58</v>
       </c>
     </row>
     <row r="98">
@@ -2575,18 +3838,31 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>19:40</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Valencia</t>
-        </is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Kaunas</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>122.44</v>
       </c>
     </row>
     <row r="99">
@@ -2597,18 +3873,31 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:10</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Malta</t>
-        </is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>122.84</v>
       </c>
     </row>
     <row r="100">
@@ -2619,18 +3908,31 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>London</t>
-        </is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>123.96</v>
       </c>
     </row>
     <row r="101">
@@ -2641,18 +3943,31 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Timisoara</t>
-        </is>
+          <t>13:35</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Ibiza</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>124.22</v>
       </c>
     </row>
     <row r="102">
@@ -2663,18 +3978,31 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Toulouse</t>
-        </is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>124.27</v>
       </c>
     </row>
     <row r="103">
@@ -2685,18 +4013,31 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Brussels</t>
-        </is>
+          <t>05:45</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>124.31</v>
       </c>
     </row>
     <row r="104">
@@ -2707,18 +4048,31 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Malta</t>
-        </is>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>124.85</v>
       </c>
     </row>
     <row r="105">
@@ -2729,18 +4083,31 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Palma</t>
-        </is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>125.08</v>
       </c>
     </row>
     <row r="106">
@@ -2751,18 +4118,31 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
-        </is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>125.17</v>
       </c>
     </row>
     <row r="107">
@@ -2773,18 +4153,31 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Bristol</t>
-        </is>
+          <t>06:45</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>125.46</v>
       </c>
     </row>
     <row r="108">
@@ -2795,18 +4188,31 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Stockholm</t>
-        </is>
+          <t>06:40</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Rome</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>126.35</v>
       </c>
     </row>
     <row r="109">
@@ -2817,18 +4223,31 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Alghero</t>
-        </is>
+          <t>05:55</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Palma</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>126.95</v>
       </c>
     </row>
     <row r="110">
@@ -2839,18 +4258,31 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Venice</t>
-        </is>
+          <t>07:40</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>127.1</v>
       </c>
     </row>
     <row r="111">
@@ -2861,18 +4293,31 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
-        </is>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Vienna</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>127.22</v>
       </c>
     </row>
     <row r="112">
@@ -2883,18 +4328,31 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Alghero</t>
-        </is>
+          <t>09:05</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>127.98</v>
       </c>
     </row>
     <row r="113">
@@ -2905,18 +4363,31 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Vienna</t>
-        </is>
+          <t>07:05</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Bristol</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>129.75</v>
       </c>
     </row>
     <row r="114">
@@ -2927,18 +4398,31 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Nantes</t>
-        </is>
+          <t>09:55</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Beziers</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>130.08</v>
       </c>
     </row>
     <row r="115">
@@ -2949,18 +4433,31 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Verona</t>
-        </is>
+          <t>07:05</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Geneva</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>131.08</v>
       </c>
     </row>
     <row r="116">
@@ -2971,18 +4468,31 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Bari</t>
-        </is>
+          <t>13:05</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Alghero</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>131.11</v>
       </c>
     </row>
     <row r="117">
@@ -2993,18 +4503,31 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Venice</t>
-        </is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>133.13</v>
       </c>
     </row>
     <row r="118">
@@ -3015,18 +4538,31 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>06:35</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Dublin</t>
-        </is>
+          <t>08:55</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>133.57</v>
       </c>
     </row>
     <row r="119">
@@ -3037,18 +4573,31 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Beziers</t>
-        </is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>133.76</v>
       </c>
     </row>
     <row r="120">
@@ -3059,18 +4608,31 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>18:50</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Menorca</t>
-        </is>
+          <t>06:05</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Tangier</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>134.11</v>
       </c>
     </row>
     <row r="121">
@@ -3081,18 +4643,31 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Pisa</t>
-        </is>
+          <t>06:05</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>134.27</v>
       </c>
     </row>
     <row r="122">
@@ -3103,18 +4678,31 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>17:25</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Katowice</t>
-        </is>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>134.94</v>
       </c>
     </row>
     <row r="123">
@@ -3125,18 +4713,31 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Vienna</t>
-        </is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Poznan</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>135.58</v>
       </c>
     </row>
     <row r="124">
@@ -3147,18 +4748,31 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Porto</t>
-        </is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Bari</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>135.92</v>
       </c>
     </row>
     <row r="125">
@@ -3169,18 +4783,31 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Toulouse</t>
-        </is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>136.11</v>
       </c>
     </row>
     <row r="126">
@@ -3191,18 +4818,31 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Oslo (Torp) TRF</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Oslo</t>
-        </is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Basel-Mulh</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>136.83</v>
       </c>
     </row>
     <row r="127">
@@ -3213,18 +4853,31 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Sevilla</t>
-        </is>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Zagreb</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>138.84</v>
       </c>
     </row>
     <row r="128">
@@ -3235,18 +4888,31 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Barcelona</t>
-        </is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Debrecen</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>138.88</v>
       </c>
     </row>
     <row r="129">
@@ -3257,18 +4923,31 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:55</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Madrid</t>
-        </is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Oslo</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>139.01</v>
       </c>
     </row>
     <row r="130">
@@ -3279,18 +4958,31 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>London</t>
-        </is>
+          <t>06:10</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Bucharest</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>139.2</v>
       </c>
     </row>
     <row r="131">
@@ -3301,18 +4993,31 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>London</t>
-        </is>
+          <t>06:25</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Warsaw</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>140.12</v>
       </c>
     </row>
     <row r="132">
@@ -3323,18 +5028,31 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>11:15</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Porto</t>
-        </is>
+          <t>13:50</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>140.22</v>
       </c>
     </row>
     <row r="133">
@@ -3345,18 +5063,31 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>07:05</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Berlin</t>
-        </is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Catania</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>140.93</v>
       </c>
     </row>
     <row r="134">
@@ -3367,18 +5098,31 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Bristol</t>
-        </is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>140.98</v>
       </c>
     </row>
     <row r="135">
@@ -3389,18 +5133,31 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Prague</t>
-        </is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>141.52</v>
       </c>
     </row>
     <row r="136">
@@ -3411,18 +5168,31 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Bratislava</t>
-        </is>
+          <t>08:10</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>141.8</v>
       </c>
     </row>
     <row r="137">
@@ -3433,18 +5203,31 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Karlsruhe</t>
-        </is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>141.96</v>
       </c>
     </row>
     <row r="138">
@@ -3455,18 +5238,31 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Belfast</t>
-        </is>
+          <t>06:25</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>141.97</v>
       </c>
     </row>
     <row r="139">
@@ -3477,18 +5273,31 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Warsaw</t>
-        </is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Bucharest</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>142.22</v>
       </c>
     </row>
     <row r="140">
@@ -3499,18 +5308,31 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Alicante</t>
-        </is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Palma</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>142.41</v>
       </c>
     </row>
     <row r="141">
@@ -3521,18 +5343,31 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Birmingham</t>
-        </is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>142.46</v>
       </c>
     </row>
     <row r="142">
@@ -3543,18 +5378,31 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>07:05</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Dusseldorf (Weeze) NRN</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Milan</t>
-        </is>
+          <t>17:35</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Catania</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>142.62</v>
       </c>
     </row>
     <row r="143">
@@ -3565,18 +5413,31 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Dusseldorf</t>
-        </is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>143.23</v>
       </c>
     </row>
     <row r="144">
@@ -3587,18 +5448,31 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Basel-Mulh</t>
-        </is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>144.16</v>
       </c>
     </row>
     <row r="145">
@@ -3609,18 +5483,31 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
+          <t>06:25</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
           <t>Warsaw</t>
         </is>
+      </c>
+      <c r="G145" t="n">
+        <v>144.85</v>
       </c>
     </row>
     <row r="146">
@@ -3631,18 +5518,31 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>12:35</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Vilnius</t>
-        </is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>144.97</v>
       </c>
     </row>
     <row r="147">
@@ -3653,18 +5553,31 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>16:05</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Geneva</t>
-        </is>
+          <t>06:35</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>145.02</v>
       </c>
     </row>
     <row r="148">
@@ -3675,18 +5588,31 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>06:20</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Brussels (Charleroi) CRL</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Turin</t>
-        </is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Bristol</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>145.58</v>
       </c>
     </row>
     <row r="149">
@@ -3697,18 +5623,1151 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>20240530</t>
+          <t>15:20</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>London (Gatwick) LGW</t>
+          <t>20240530</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Cluj</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>145.67</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>08:05</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>08:25</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>146.09</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Riga</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>146.17</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Biarritz</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>146.98</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>09:55</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Copenhagen</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>147.86</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>06:35</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>07:10</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Katowice</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>148.4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>148.78</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Zadar</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>148.97</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>18:55</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>149.37</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>15:10</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>06:50</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Palma</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>150.16</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>16:05</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>150.68</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>151.19</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>08:45</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>05:45</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>151.53</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>10:50</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>13:25</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>151.79</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>07:10</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Bucharest</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>151.98</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>12:45</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>09:05</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
           <t>London</t>
         </is>
+      </c>
+      <c r="G167" t="n">
+        <v>152.74</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>11:45</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>153.01</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>08:50</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Zagreb</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>153.5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>08:05</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>15:40</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>154.16</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>06:20</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Warsaw</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>154.25</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>155.09</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>12:20</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>156.16</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>08:15</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>06:15</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Zagreb</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>156.21</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>06:35</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>156.59</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>10:55</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Edinburgh</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>158.69</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Bournemout</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>158.69</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>17:10</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>05:45</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Dusseldorf</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Alicante</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>159.54</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>06:35</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>12:35</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>159.8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>21:10</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Berlin</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>159.89</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>20240525</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>20240530</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>08:35</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Eindhoven</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Faro</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>160.13</v>
       </c>
     </row>
   </sheetData>

--- a/flight_results.xlsx
+++ b/flight_results.xlsx
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>204.2</v>
+        <v>204.18</v>
       </c>
     </row>
     <row r="48">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="I170" t="n">
-        <v>271.14</v>
+        <v>271.09</v>
       </c>
     </row>
     <row r="171">
@@ -15372,7 +15372,7 @@
         </is>
       </c>
       <c r="I332" t="n">
-        <v>235.09</v>
+        <v>235.07</v>
       </c>
     </row>
     <row r="333">
@@ -20547,7 +20547,7 @@
         </is>
       </c>
       <c r="I447" t="n">
-        <v>168.85</v>
+        <v>168.81</v>
       </c>
     </row>
     <row r="448">
